--- a/data/trans_bre/P16B04-Clase-trans_bre.xlsx
+++ b/data/trans_bre/P16B04-Clase-trans_bre.xlsx
@@ -642,32 +642,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 45,47</t>
+          <t>0,0; 54,58</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-16,29; 70,9</t>
+          <t>-25,22; 67,8</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-85,54; 17,44</t>
+          <t>-84,76; 17,34</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 83,15</t>
+          <t>0,0; 119,86</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-13,72; 411,73</t>
+          <t>-18,33; 251,43</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-85,54; 21,07</t>
+          <t>-85,54; 20,98</t>
         </is>
       </c>
     </row>
@@ -727,7 +727,7 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 62,28</t>
+          <t>0,0; 61,76</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -742,7 +742,7 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 165,03</t>
+          <t>0,0; 161,48</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
@@ -802,32 +802,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 38,92</t>
+          <t>0,0; 47,1</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>3,85; 37,27</t>
+          <t>4,06; 39,19</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-58,45; 0,0</t>
+          <t>-57,94; 0,0</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 63,71</t>
+          <t>0,0; 89,05</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>3,99; 59,16</t>
+          <t>4,23; 64,35</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-58,45; 0,0</t>
+          <t>-57,94; 0,0</t>
         </is>
       </c>
     </row>
@@ -882,32 +882,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-19,03; 7,26</t>
+          <t>-22,14; 7,06</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>2,91; 27,18</t>
+          <t>2,9; 25,88</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 19,96</t>
+          <t>0,0; 20,49</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-19,76; 7,79</t>
+          <t>-22,62; 7,52</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>3,0; 37,32</t>
+          <t>2,98; 34,88</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 24,93</t>
+          <t>0,0; 25,77</t>
         </is>
       </c>
     </row>
@@ -962,32 +962,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-34,46; 0,0</t>
+          <t>-33,91; 0,0</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-44,61; 10,96</t>
+          <t>-39,62; 10,86</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-25,54; 0,0</t>
+          <t>-25,18; 0,0</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-34,46; 0,0</t>
+          <t>-33,91; 0,0</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-46,31; 12,3</t>
+          <t>-39,66; 12,18</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-25,54; 0,0</t>
+          <t>-25,18; 0,0</t>
         </is>
       </c>
     </row>
@@ -1042,12 +1042,12 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-30,41; 0,0</t>
+          <t>-31,12; 0,0</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-22,83; 0,0</t>
+          <t>-20,9; 0,0</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
@@ -1057,12 +1057,12 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-30,41; 0,0</t>
+          <t>-31,12; 0,0</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-22,83; 0,0</t>
+          <t>-20,9; 0,0</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
@@ -1122,32 +1122,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-8,13; 6,1</t>
+          <t>-8,46; 6,27</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>1,46; 19,04</t>
+          <t>0,83; 19,53</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-7,12; 7,79</t>
+          <t>-7,19; 8,2</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-8,28; 6,68</t>
+          <t>-8,52; 6,81</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>1,82; 24,63</t>
+          <t>0,48; 25,16</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-7,33; 8,57</t>
+          <t>-7,51; 9,35</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P16B04-Clase-trans_bre.xlsx
+++ b/data/trans_bre/P16B04-Clase-trans_bre.xlsx
@@ -994,7 +994,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
